--- a/data/trans_media/Q31A-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q31A-Habitat-trans_media.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,13; 17,13</t>
+          <t>16,22; 17,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,68; 18,27</t>
+          <t>16,63; 18,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,45; 17,81</t>
+          <t>16,5; 17,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,88; 16,7</t>
+          <t>15,83; 16,7</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,78; 19,3</t>
+          <t>17,76; 19,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,14; 22,29</t>
+          <t>18,28; 22,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,6; 19,62</t>
+          <t>17,55; 19,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,72</t>
+          <t>16,69; 17,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,59</t>
+          <t>16,72; 17,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,34; 18,99</t>
+          <t>17,3; 19,11</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,9; 18,11</t>
+          <t>16,91; 18,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,28; 16,94</t>
+          <t>16,3; 16,98</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 17,18</t>
+          <t>16,86; 17,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 17,63</t>
+          <t>17,06; 17,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,28</t>
+          <t>16,73; 17,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,38; 16,8</t>
+          <t>16,39; 16,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,1</t>
+          <t>17,51; 18,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,07; 19,33</t>
+          <t>18,07; 19,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,19; 20,22</t>
+          <t>18,16; 20,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,19; 18,03</t>
+          <t>17,21; 18,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,39</t>
+          <t>17,11; 17,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,42; 17,99</t>
+          <t>17,43; 17,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 17,99</t>
+          <t>17,26; 18,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,11</t>
+          <t>16,71; 17,12</t>
         </is>
       </c>
     </row>
@@ -1009,12 +1009,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,5</t>
+          <t>17,03; 17,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,29</t>
+          <t>16,8; 17,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,42 +1024,42 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,77; 18,51</t>
+          <t>17,75; 18,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,14; 19,4</t>
+          <t>18,16; 19,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 19,17</t>
+          <t>18,04; 19,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 19,1</t>
+          <t>17,89; 19,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,5</t>
+          <t>17,14; 17,49</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 17,97</t>
+          <t>17,48; 18,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,85</t>
+          <t>17,31; 17,82</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,16; 17,66</t>
+          <t>17,16; 17,67</t>
         </is>
       </c>
     </row>
@@ -1144,42 +1144,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,13; 17,61</t>
+          <t>17,18; 17,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,95</t>
+          <t>17,15; 17,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,0</t>
+          <t>16,57; 17,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,69</t>
+          <t>17,04; 17,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,98; 19,1</t>
+          <t>17,97; 19,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,54; 20,25</t>
+          <t>18,5; 20,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,52; 18,63</t>
+          <t>17,51; 18,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,67; 19,42</t>
+          <t>16,61; 19,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,17 +1189,17 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,65; 18,46</t>
+          <t>17,68; 18,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,51</t>
+          <t>16,98; 17,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 18,13</t>
+          <t>16,93; 18,09</t>
         </is>
       </c>
     </row>
@@ -1289,57 +1289,57 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,19; 17,91</t>
+          <t>17,16; 17,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,44</t>
+          <t>16,96; 17,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,37; 18,15</t>
+          <t>17,39; 18,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,88; 18,64</t>
+          <t>17,91; 18,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,26; 19,17</t>
+          <t>18,22; 19,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,5; 19,83</t>
+          <t>18,5; 19,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>18,34; 19,33</t>
+          <t>18,41; 19,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,42; 17,78</t>
+          <t>17,38; 17,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,66; 18,21</t>
+          <t>17,67; 18,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,69; 18,28</t>
+          <t>17,68; 18,28</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>17,9; 18,47</t>
+          <t>17,88; 18,47</t>
         </is>
       </c>
     </row>
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,19</t>
+          <t>17,0; 17,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,5</t>
+          <t>17,22; 17,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,12</t>
+          <t>16,89; 17,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,32 +1444,32 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,35</t>
+          <t>17,96; 18,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,48; 19,14</t>
+          <t>18,47; 19,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,3; 18,98</t>
+          <t>18,32; 18,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,66</t>
+          <t>17,52; 18,67</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,54</t>
+          <t>17,34; 17,53</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,68; 17,97</t>
+          <t>17,68; 17,96</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">

--- a/data/trans_media/Q31A-Habitat-trans_media.xlsx
+++ b/data/trans_media/Q31A-Habitat-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,22; 17,19</t>
+          <t>16,16; 17,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,63; 18,18</t>
+          <t>16,62; 18,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,5; 17,91</t>
+          <t>16,4; 17,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,76; 19,25</t>
+          <t>17,74; 19,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,28; 22,94</t>
+          <t>18,08; 22,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,55; 19,68</t>
+          <t>17,55; 19,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,64</t>
+          <t>16,73; 17,64</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,3; 19,11</t>
+          <t>17,29; 18,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>16,91; 18,02</t>
+          <t>16,9; 18,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,86; 17,19</t>
+          <t>16,84; 17,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,7 +874,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,29</t>
+          <t>16,72; 17,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,51; 18,07</t>
+          <t>17,48; 18,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,07; 19,27</t>
+          <t>18,1; 19,34</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,16; 20,1</t>
+          <t>18,14; 20,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,11; 17,42</t>
+          <t>17,08; 17,39</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,43; 17,99</t>
+          <t>17,45; 17,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,26; 18,1</t>
+          <t>17,26; 18,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,76; 17,13</t>
+          <t>16,75; 17,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,03; 17,51</t>
+          <t>17,01; 17,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,27</t>
+          <t>16,78; 17,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,75; 18,46</t>
+          <t>17,75; 18,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,16; 19,64</t>
+          <t>18,14; 19,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,04; 19,15</t>
+          <t>17,97; 19,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,14; 17,49</t>
+          <t>17,14; 17,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 18,09</t>
+          <t>17,48; 18,02</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,31; 17,82</t>
+          <t>17,29; 17,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,18; 17,62</t>
+          <t>17,12; 17,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,15; 17,98</t>
+          <t>17,14; 17,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,02</t>
+          <t>16,57; 17,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,97; 19,13</t>
+          <t>18,0; 19,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,5; 20,19</t>
+          <t>18,48; 20,14</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,51; 18,63</t>
+          <t>17,5; 18,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 17,93</t>
+          <t>17,46; 17,96</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,68; 18,43</t>
+          <t>17,68; 18,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>16,98; 17,49</t>
+          <t>16,99; 17,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 17,39</t>
+          <t>17,03; 17,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,16; 17,83</t>
+          <t>17,18; 17,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,96; 17,42</t>
+          <t>16,98; 17,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,91; 18,65</t>
+          <t>17,91; 18,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,22; 19,15</t>
+          <t>18,18; 19,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,5; 19,67</t>
+          <t>18,51; 19,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,76</t>
+          <t>17,4; 17,79</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 18,21</t>
+          <t>17,65; 18,23</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,68; 18,28</t>
+          <t>17,69; 18,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,18</t>
+          <t>17,0; 17,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,22; 17,52</t>
+          <t>17,21; 17,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,13</t>
+          <t>16,88; 17,12</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,96; 18,36</t>
+          <t>17,95; 18,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,47; 19,12</t>
+          <t>18,49; 19,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>18,32; 18,97</t>
+          <t>18,29; 18,95</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,34; 17,53</t>
+          <t>17,34; 17,54</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>17,68; 17,96</t>
+          <t>17,67; 17,98</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,73</t>
+          <t>17,46; 17,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
